--- a/datas/shared/MilitaryTechs.xlsx
+++ b/datas/shared/MilitaryTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="3920" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="7180" yWindow="6060" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="militaryTechs" sheetId="28" r:id="rId1"/>
@@ -264,7 +264,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="172">
+  <cellStyleXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -441,6 +441,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -454,7 +458,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="172">
+  <cellStyles count="176">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -543,6 +547,8 @@
     <cellStyle name="超链接" xfId="166" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="168" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -624,6 +630,8 @@
     <cellStyle name="访问过的超链接" xfId="167" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1076,7 +1084,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1106,7 +1114,7 @@
         <v>0.05</v>
       </c>
       <c r="C2" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1120,7 +1128,7 @@
         <v>0.05</v>
       </c>
       <c r="C3" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1134,7 +1142,7 @@
         <v>0.05</v>
       </c>
       <c r="C4" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1148,7 +1156,7 @@
         <v>0.05</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1162,7 +1170,7 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -1176,7 +1184,7 @@
         <v>0.05</v>
       </c>
       <c r="C7" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1190,7 +1198,7 @@
         <v>0.05</v>
       </c>
       <c r="C8" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -1204,7 +1212,7 @@
         <v>0.05</v>
       </c>
       <c r="C9" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -1218,7 +1226,7 @@
         <v>0.05</v>
       </c>
       <c r="C10" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>21</v>
@@ -1232,7 +1240,7 @@
         <v>0.05</v>
       </c>
       <c r="C11" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1246,7 +1254,7 @@
         <v>0.05</v>
       </c>
       <c r="C12" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1260,7 +1268,7 @@
         <v>0.05</v>
       </c>
       <c r="C13" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -1274,7 +1282,7 @@
         <v>0.05</v>
       </c>
       <c r="C14" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -1288,7 +1296,7 @@
         <v>0.05</v>
       </c>
       <c r="C15" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
@@ -1302,7 +1310,7 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -1316,7 +1324,7 @@
         <v>0.05</v>
       </c>
       <c r="C17" s="1">
-        <v>50</v>
+        <v>10000</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>22</v>

--- a/datas/shared/MilitaryTechs.xlsx
+++ b/datas/shared/MilitaryTechs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7180" yWindow="6060" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="5520" yWindow="3540" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="militaryTechs" sheetId="28" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>INT_techPointPerLevel</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantry_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalry_hpAdd</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>siege_hpAdd</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +280,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="176">
+  <cellStyleXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -445,6 +461,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -458,7 +482,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="176">
+  <cellStyles count="184">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -549,6 +573,10 @@
     <cellStyle name="超链接" xfId="170" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="172" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="182" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -632,6 +660,10 @@
     <cellStyle name="访问过的超链接" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="173" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="183" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1081,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1164,7 +1196,7 @@
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
@@ -1173,12 +1205,12 @@
         <v>10000</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
@@ -1192,7 +1224,7 @@
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <v>0.05</v>
@@ -1206,7 +1238,7 @@
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
@@ -1220,7 +1252,7 @@
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.05</v>
@@ -1229,12 +1261,12 @@
         <v>10000</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>0.05</v>
@@ -1243,12 +1275,12 @@
         <v>10000</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.05</v>
@@ -1262,7 +1294,7 @@
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>0.05</v>
@@ -1276,7 +1308,7 @@
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1">
         <v>0.05</v>
@@ -1285,12 +1317,12 @@
         <v>10000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>0.05</v>
@@ -1299,12 +1331,12 @@
         <v>10000</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>0.05</v>
@@ -1313,20 +1345,76 @@
         <v>10000</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10000</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="B20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/datas/shared/MilitaryTechs.xlsx
+++ b/datas/shared/MilitaryTechs.xlsx
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1143,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C2" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>19</v>
@@ -1157,10 +1157,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C3" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1171,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C4" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1185,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C5" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -1199,10 +1199,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C6" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -1213,10 +1213,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C7" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -1227,10 +1227,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C8" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -1241,10 +1241,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C9" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
@@ -1255,10 +1255,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C10" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1269,10 +1269,10 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C11" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
@@ -1283,10 +1283,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C12" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
@@ -1297,10 +1297,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C13" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -1311,10 +1311,10 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C14" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>21</v>
@@ -1325,10 +1325,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C15" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
@@ -1339,10 +1339,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C16" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>21</v>
@@ -1353,10 +1353,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C17" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>22</v>
@@ -1367,10 +1367,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C18" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>22</v>
@@ -1381,10 +1381,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C19" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -1395,10 +1395,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C20" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -1409,10 +1409,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="C21" s="1">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>22</v>

--- a/datas/shared/MilitaryTechs.xlsx
+++ b/datas/shared/MilitaryTechs.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3540" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
+    <workbookView xWindow="2360" yWindow="1900" windowWidth="27520" windowHeight="14540" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="militaryTechs" sheetId="28" r:id="rId1"/>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="1">
         <v>100</v>
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5" s="1">
         <v>100</v>
@@ -1199,7 +1199,7 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
@@ -1213,7 +1213,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -1227,7 +1227,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8" s="1">
         <v>100</v>
@@ -1241,7 +1241,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="1">
         <v>100</v>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -1269,7 +1269,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C11" s="1">
         <v>100</v>
@@ -1283,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
@@ -1297,7 +1297,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C13" s="1">
         <v>100</v>
@@ -1311,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C14" s="1">
         <v>100</v>
@@ -1325,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C15" s="1">
         <v>100</v>
@@ -1339,7 +1339,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
@@ -1353,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
@@ -1367,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C19" s="1">
         <v>100</v>
@@ -1395,7 +1395,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C20" s="1">
         <v>100</v>
@@ -1409,7 +1409,7 @@
         <v>27</v>
       </c>
       <c r="B21" s="1">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C21" s="1">
         <v>100</v>
